--- a/tarot.xlsx
+++ b/tarot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran\Desktop\Python\tarot_app\tarot_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran\Desktop\Python\my-tarot-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91301F-1185-458C-B882-48A4D238525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1562B-6A09-4837-B2CA-92D028B65F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B6CB3BA-FE96-44EF-953C-025693071C05}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>The Fool</t>
   </si>
@@ -805,6 +805,174 @@
   </si>
   <si>
     <t>m00.jpg</t>
+  </si>
+  <si>
+    <t>lqSdvuBPyw0</t>
+  </si>
+  <si>
+    <t>ZXydqM-wdbY</t>
+  </si>
+  <si>
+    <t>1fxOLJyfLrM</t>
+  </si>
+  <si>
+    <t>4IVhv6tP3N0</t>
+  </si>
+  <si>
+    <t>DBwUPIvoSSE</t>
+  </si>
+  <si>
+    <t>TDeV9R0PfSk</t>
+  </si>
+  <si>
+    <t>aTKuBqf8Vs4</t>
+  </si>
+  <si>
+    <t>EAmddGrpdTM</t>
+  </si>
+  <si>
+    <t>FFstWpDxmCs</t>
+  </si>
+  <si>
+    <t>ZaDvK8IgHqc</t>
+  </si>
+  <si>
+    <t>y-zgkFa3AAQ</t>
+  </si>
+  <si>
+    <t>uX8MTjiUlvs</t>
+  </si>
+  <si>
+    <t>mdfszrdGdLE</t>
+  </si>
+  <si>
+    <t>i_e3__SUkyw</t>
+  </si>
+  <si>
+    <t>GNOjm8xRO-U</t>
+  </si>
+  <si>
+    <t>9UA7jkUNUOo</t>
+  </si>
+  <si>
+    <t>-ANTv-H5slk</t>
+  </si>
+  <si>
+    <t>L0JjYS--pE8</t>
+  </si>
+  <si>
+    <t>Hw0x4NYB70Y</t>
+  </si>
+  <si>
+    <t>snMtNyg53Ic</t>
+  </si>
+  <si>
+    <t>x1tCRKU2pmA</t>
+  </si>
+  <si>
+    <t>yfJxueF8Z60</t>
+  </si>
+  <si>
+    <t>ujOs02oGxjc</t>
+  </si>
+  <si>
+    <t>VxJb6a-aRi0</t>
+  </si>
+  <si>
+    <t>JFoK-SmmX0U</t>
+  </si>
+  <si>
+    <t>JTHP6KV7QcU</t>
+  </si>
+  <si>
+    <t>xUGsjUbrERM</t>
+  </si>
+  <si>
+    <t>3xnuvDcUET8</t>
+  </si>
+  <si>
+    <t>oT6glvZT_PY</t>
+  </si>
+  <si>
+    <t>TFmAp80RClk</t>
+  </si>
+  <si>
+    <t>pAT7fcO99E0</t>
+  </si>
+  <si>
+    <t>tgFLRQ1co1Y</t>
+  </si>
+  <si>
+    <t>VioEdYQpMb0</t>
+  </si>
+  <si>
+    <t>SBQj5ZtV6cE</t>
+  </si>
+  <si>
+    <t>-ueJVMuD92A</t>
+  </si>
+  <si>
+    <t>MYGZrZlr6wQ</t>
+  </si>
+  <si>
+    <t>2VoWwj5eKWw</t>
+  </si>
+  <si>
+    <t>ARriY2mBge4</t>
+  </si>
+  <si>
+    <t>NvJiuQhKOfI</t>
+  </si>
+  <si>
+    <t>uanD7qBo3no</t>
+  </si>
+  <si>
+    <t>s8xd-p2QGU8</t>
+  </si>
+  <si>
+    <t>Vay4836CiH4</t>
+  </si>
+  <si>
+    <t>8C-hq2EBG74</t>
+  </si>
+  <si>
+    <t>fxSR7KNXyhY</t>
+  </si>
+  <si>
+    <t>m6p_bumzThg</t>
+  </si>
+  <si>
+    <t>izcUeTcCLVc</t>
+  </si>
+  <si>
+    <t>ry95AXsCGgY</t>
+  </si>
+  <si>
+    <t>DohuTUjX_q0</t>
+  </si>
+  <si>
+    <t>284RflAUQ80</t>
+  </si>
+  <si>
+    <t>LBhH8OAgpfw</t>
+  </si>
+  <si>
+    <t>OYzwFG5IV8k</t>
+  </si>
+  <si>
+    <t>yXntvt1mmxM</t>
+  </si>
+  <si>
+    <t>7MNZu5Md3cQ</t>
+  </si>
+  <si>
+    <t>5wCrO_5MHM4</t>
+  </si>
+  <si>
+    <t>nMncSmk_y3w</t>
+  </si>
+  <si>
+    <t>64y-5q1d-28</t>
   </si>
 </sst>
 </file>
@@ -853,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -862,6 +1030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBFE92F-151D-478B-8024-E76D5C50ADBA}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1523,7 +1692,7 @@
         <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1537,7 +1706,7 @@
         <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1551,7 +1720,7 @@
         <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1565,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1579,7 +1748,7 @@
         <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1593,7 +1762,7 @@
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1607,7 +1776,7 @@
         <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1621,7 +1790,7 @@
         <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1635,7 +1804,7 @@
         <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1649,7 +1818,7 @@
         <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1663,7 +1832,7 @@
         <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1677,7 +1846,7 @@
         <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1691,7 +1860,7 @@
         <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1705,7 +1874,7 @@
         <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1719,7 +1888,7 @@
         <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1733,7 +1902,7 @@
         <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1746,8 +1915,8 @@
       <c r="C40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D40" t="s">
-        <v>256</v>
+      <c r="D40" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1761,7 +1930,7 @@
         <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1775,7 +1944,7 @@
         <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1789,7 +1958,7 @@
         <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1803,7 +1972,7 @@
         <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1817,7 +1986,7 @@
         <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1831,7 +2000,7 @@
         <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1845,7 +2014,7 @@
         <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1859,7 +2028,7 @@
         <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1873,7 +2042,7 @@
         <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1887,7 +2056,7 @@
         <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1901,7 +2070,7 @@
         <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1915,7 +2084,7 @@
         <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -1929,7 +2098,7 @@
         <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1943,7 +2112,7 @@
         <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1957,7 +2126,7 @@
         <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1971,7 +2140,7 @@
         <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1985,7 +2154,7 @@
         <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1998,8 +2167,8 @@
       <c r="C58" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D58" t="s">
-        <v>256</v>
+      <c r="D58" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2013,7 +2182,7 @@
         <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2027,7 +2196,7 @@
         <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2041,7 +2210,7 @@
         <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2055,7 +2224,7 @@
         <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -2069,7 +2238,7 @@
         <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2083,7 +2252,7 @@
         <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2097,7 +2266,7 @@
         <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2111,7 +2280,7 @@
         <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2125,7 +2294,7 @@
         <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2139,7 +2308,7 @@
         <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2153,7 +2322,7 @@
         <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2167,7 +2336,7 @@
         <v>222</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2181,7 +2350,7 @@
         <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2195,7 +2364,7 @@
         <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2209,7 +2378,7 @@
         <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2223,7 +2392,7 @@
         <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2237,7 +2406,7 @@
         <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2251,7 +2420,7 @@
         <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2265,7 +2434,7 @@
         <v>229</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2279,7 +2448,7 @@
         <v>230</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -2293,7 +2462,7 @@
         <v>231</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
